--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
   </si>
 </sst>
 </file>
@@ -73,19 +94,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -94,42 +139,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -138,16 +153,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,17 +185,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,29 +236,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -225,43 +246,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +354,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,126 +420,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -461,16 +482,53 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,41 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,17 +566,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,137 +609,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,7 +1118,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1130,22 +1171,42 @@
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="6">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
       <c r="A7" s="2"/>
@@ -1322,8 +1383,9 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>未学完</t>
+  </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
   </si>
 </sst>
 </file>
@@ -107,39 +119,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,17 +158,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,19 +188,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -219,21 +246,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -246,67 +258,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,103 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,59 +506,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,7 +532,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +586,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,134 +624,134 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,13 +770,7 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1124,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1171,7 +1177,7 @@
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1185,7 +1191,7 @@
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1203,7 @@
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="8"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1209,22 +1215,42 @@
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
@@ -1383,9 +1409,10 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>学习python基础</t>
+  </si>
+  <si>
+    <t>用Anaconda创建虚拟环境</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习待续</t>
+  </si>
+  <si>
+    <t>学习flask</t>
   </si>
 </sst>
 </file>
@@ -84,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,21 +118,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,121 +260,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,68 +518,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +543,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -601,6 +586,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1253,22 +1265,42 @@
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
@@ -1409,10 +1441,11 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -66,9 +66,6 @@
     <t>未学完</t>
   </si>
   <si>
-    <t>学习python基础  2/3</t>
-  </si>
-  <si>
     <t>查看文档</t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>学习flask</t>
+  </si>
+  <si>
+    <t>整理笔记，学习flask</t>
+  </si>
+  <si>
+    <t>已经基本了解flask框架</t>
   </si>
 </sst>
 </file>
@@ -96,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -124,7 +127,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -132,48 +209,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,79 +232,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,11 +521,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,21 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -572,25 +573,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -613,6 +601,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -621,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1139,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1234,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1246,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
@@ -1258,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1272,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1284,10 +1287,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
@@ -1296,27 +1299,41 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
@@ -1441,11 +1458,12 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23256" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -90,7 +90,13 @@
     <t>整理笔记，学习flask</t>
   </si>
   <si>
-    <t>已经基本了解flask框架</t>
+    <t>学习flask-WTF实现表单</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档，了解Numpy</t>
   </si>
 </sst>
 </file>
@@ -127,8 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,45 +149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,16 +172,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,33 +226,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -544,6 +565,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -554,21 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,8 +608,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,23 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1334,24 +1340,42 @@
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
@@ -1458,12 +1482,13 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <t>熟悉flask中的代码，</t>
   </si>
   <si>
-    <t>学习文档，了解Numpy</t>
+    <t>学习文档;了解Numpy</t>
   </si>
 </sst>
 </file>
@@ -105,9 +105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,7 +135,97 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,122 +239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,30 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -596,6 +572,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -614,11 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,145 +630,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A13" sqref="A13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>开会，看文档</t>
+  </si>
+  <si>
+    <t>看文档，配置node</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>明天继续</t>
   </si>
 </sst>
 </file>
@@ -105,9 +117,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,6 +139,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,39 +161,109 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,91 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,79 +291,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,103 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +537,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -555,55 +611,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1369,7 +1381,9 @@
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="5"/>
@@ -1380,22 +1394,42 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
@@ -1482,13 +1516,14 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>明天继续</t>
+  </si>
+  <si>
+    <t>没完成</t>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>配置ltp</t>
+  </si>
+  <si>
+    <t>未完成，明继续</t>
   </si>
 </sst>
 </file>
@@ -116,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,59 +150,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +203,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -220,17 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,37 +273,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,8 +567,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,21 +598,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,11 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1432,22 +1444,42 @@
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
@@ -1516,7 +1548,7 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -1524,6 +1556,7 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>未完成，明继续</t>
+  </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看element</t>
   </si>
 </sst>
 </file>
@@ -128,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,6 +159,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -158,6 +271,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -166,71 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,59 +296,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -303,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +558,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -573,6 +591,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -593,15 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,36 +655,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,16 +675,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,115 +693,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1482,22 +1491,42 @@
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
@@ -1548,7 +1577,7 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -1557,6 +1586,7 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -130,6 +130,40 @@
   </si>
   <si>
     <t>查看element</t>
+  </si>
+  <si>
+    <t>查看文档和element</t>
+  </si>
+  <si>
+    <t>又看了点falsk和vue</t>
+  </si>
+  <si>
+    <t>学习文档;</t>
+  </si>
+  <si>
+    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
+  </si>
+  <si>
+    <t>寻找解决前后端交互的方法</t>
+  </si>
+  <si>
+    <t>没解决</t>
+  </si>
+  <si>
+    <t>总结：学习新东西，不能从头到尾全
+部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
+  </si>
+  <si>
+    <t>把调节接口的前端进行修改</t>
+  </si>
+  <si>
+    <t>学习小组完成服务的代码</t>
+  </si>
+  <si>
+    <t>能看懂的更多了，还需要查阅</t>
+  </si>
+  <si>
+    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
   </si>
 </sst>
 </file>
@@ -137,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -166,16 +208,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,43 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,7 +270,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,21 +339,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,43 +354,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,144 +540,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -558,11 +606,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,23 +650,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,13 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +709,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,137 +749,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +899,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1529,55 +1621,493 @@
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" ht="40" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" ht="40" customHeight="1" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" ht="40" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" ht="40" customHeight="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" ht="40" customHeight="1" spans="1:4">
+      <c r="A40" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" ht="40" customHeight="1" spans="1:1">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" ht="40" customHeight="1" spans="1:1">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" ht="40" customHeight="1" spans="1:1">
+      <c r="A43" s="3">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="44" ht="40" customHeight="1" spans="1:1">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" ht="40" customHeight="1" spans="1:1">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" ht="40" customHeight="1" spans="1:1">
+      <c r="A46" s="3">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="47" ht="40" customHeight="1" spans="1:1">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" ht="40" customHeight="1" spans="1:1">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" ht="40" customHeight="1" spans="1:1">
+      <c r="A49" s="3">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="50" ht="40" customHeight="1" spans="1:1">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" ht="40" customHeight="1" spans="1:1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" ht="40" customHeight="1" spans="1:1">
+      <c r="A52" s="3">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="53" ht="40" customHeight="1" spans="1:1">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" ht="40" customHeight="1" spans="1:1">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" ht="40" customHeight="1" spans="1:1">
+      <c r="A55" s="3">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="56" ht="40" customHeight="1" spans="1:1">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" ht="40" customHeight="1" spans="1:1">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" ht="40" customHeight="1" spans="1:1">
+      <c r="A58" s="3">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="59" ht="40" customHeight="1" spans="1:1">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" ht="40" customHeight="1" spans="1:1">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" ht="40" customHeight="1" spans="1:1">
+      <c r="A61" s="3">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="62" ht="40" customHeight="1" spans="1:1">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" ht="40" customHeight="1" spans="1:1">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" ht="40" customHeight="1" spans="1:1">
+      <c r="A64" s="3">
+        <v>43683</v>
+      </c>
+    </row>
+    <row r="65" ht="40" customHeight="1" spans="1:1">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" ht="40" customHeight="1" spans="1:1">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" ht="40" customHeight="1" spans="1:1">
+      <c r="A67" s="3">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="68" ht="40" customHeight="1" spans="1:1">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" ht="40" customHeight="1" spans="1:1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" ht="40" customHeight="1" spans="1:1">
+      <c r="A70" s="3">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="71" ht="40" customHeight="1" spans="1:1">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" ht="40" customHeight="1" spans="1:1">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" ht="40" customHeight="1" spans="1:1">
+      <c r="A73" s="3">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="74" ht="40" customHeight="1" spans="1:1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" ht="40" customHeight="1" spans="1:1">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" ht="40" customHeight="1" spans="1:1">
+      <c r="A76" s="3">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="77" ht="40" customHeight="1" spans="1:1">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" ht="40" customHeight="1" spans="1:1">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" ht="40" customHeight="1" spans="1:1">
+      <c r="A79" s="3">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="80" ht="40" customHeight="1" spans="1:1">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" ht="40" customHeight="1" spans="1:1">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" ht="40" customHeight="1" spans="1:1">
+      <c r="A82" s="3">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="83" ht="40" customHeight="1" spans="1:1">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" ht="40" customHeight="1" spans="1:1">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" ht="40" customHeight="1" spans="1:1">
+      <c r="A85" s="3">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="86" ht="40" customHeight="1" spans="1:1">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" ht="40" customHeight="1" spans="1:1">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" ht="40" customHeight="1" spans="1:1">
+      <c r="A88" s="3">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="89" ht="40" customHeight="1" spans="1:1">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" ht="40" customHeight="1" spans="1:1">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" ht="40" customHeight="1" spans="1:1">
+      <c r="A91" s="3">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="92" ht="40" customHeight="1" spans="1:1">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" ht="40" customHeight="1" spans="1:1">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" ht="40" customHeight="1" spans="1:1">
+      <c r="A94" s="3">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="95" ht="40" customHeight="1" spans="1:1">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" ht="40" customHeight="1" spans="1:1">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" ht="40" customHeight="1" spans="1:1">
+      <c r="A97" s="3">
+        <v>43694</v>
+      </c>
+    </row>
+    <row r="98" ht="40" customHeight="1" spans="1:1">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" ht="40" customHeight="1" spans="1:1">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" ht="40" customHeight="1" spans="1:1">
+      <c r="A100" s="3">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="101" ht="40" customHeight="1" spans="1:1">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" ht="40" customHeight="1" spans="1:1">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" ht="40" customHeight="1" spans="1:1">
+      <c r="A103" s="3">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="104" ht="40" customHeight="1" spans="1:1">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" ht="40" customHeight="1" spans="1:1">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" ht="40" customHeight="1" spans="1:1">
+      <c r="A106" s="3">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="107" ht="40" customHeight="1" spans="1:1">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" ht="40" customHeight="1" spans="1:1">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" ht="40" customHeight="1" spans="1:1">
+      <c r="A109" s="3">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="110" ht="40" customHeight="1" spans="1:1">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" ht="40" customHeight="1" spans="1:1">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" ht="40" customHeight="1" spans="1:1">
+      <c r="A112" s="3">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="113" ht="40" customHeight="1" spans="1:1">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" ht="40" customHeight="1" spans="1:1">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" ht="40" customHeight="1" spans="1:1">
+      <c r="A115" s="3">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="116" ht="40" customHeight="1" spans="1:1">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" ht="40" customHeight="1" spans="1:1">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" ht="40" customHeight="1" spans="1:1">
+      <c r="A118" s="3">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="119" ht="40" customHeight="1" spans="1:1">
+      <c r="A119" s="6"/>
+    </row>
+    <row r="120" ht="40" customHeight="1" spans="1:1">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" ht="40" customHeight="1" spans="1:1">
+      <c r="A121" s="3">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="122" ht="40" customHeight="1" spans="1:1">
+      <c r="A122" s="6"/>
+    </row>
+    <row r="123" ht="40" customHeight="1" spans="1:1">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" ht="40" customHeight="1" spans="1:1">
+      <c r="A124" s="3">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="125" ht="40" customHeight="1" spans="1:1">
+      <c r="A125" s="6"/>
+    </row>
+    <row r="126" ht="40" customHeight="1" spans="1:1">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" ht="40" customHeight="1" spans="1:1">
+      <c r="A127" s="3">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="128" ht="40" customHeight="1" spans="1:1">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" ht="40" customHeight="1" spans="1:1">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" ht="40" customHeight="1" spans="1:1">
+      <c r="A130" s="3">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="131" ht="40" customHeight="1" spans="1:1">
+      <c r="A131" s="6"/>
+    </row>
+    <row r="132" ht="40" customHeight="1" spans="1:1">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" ht="40" customHeight="1" spans="1:1">
+      <c r="A133" s="3">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="134" ht="40" customHeight="1" spans="1:1">
+      <c r="A134" s="6"/>
+    </row>
+    <row r="135" ht="40" customHeight="1" spans="1:1">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" ht="40" customHeight="1"/>
+    <row r="137" ht="40" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="48">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -1587,6 +2117,42 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A133:A135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -172,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -215,8 +215,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,17 +246,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,9 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,14 +285,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -293,21 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,9 +330,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,193 +354,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -650,8 +674,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,24 +706,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,26 +729,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -737,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D36"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="15720" windowHeight="8327"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>日期</t>
   </si>
@@ -164,6 +164,33 @@
   </si>
   <si>
     <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
+  </si>
+  <si>
+    <t>开会，查看老师发的文档</t>
+  </si>
+  <si>
+    <t>开始接触CRF++，是一个能训练的工具</t>
+  </si>
+  <si>
+    <t>稍微有点了解</t>
+  </si>
+  <si>
+    <t>通过分词，开始去使用CRF++的训练功能</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>没完成，有点蒙</t>
+  </si>
+  <si>
+    <t>继续，对分词进行训练</t>
+  </si>
+  <si>
+    <t>大致完成</t>
+  </si>
+  <si>
+    <t>安装pytorch，解决命令行conda一直报错</t>
   </si>
 </sst>
 </file>
@@ -171,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -202,14 +229,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,7 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,14 +266,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,30 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,16 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,16 +659,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -671,24 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -706,6 +724,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -715,16 +742,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -737,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,137 +776,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +944,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,8 +1299,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1750,207 +1780,403 @@
       <c r="A40" s="3">
         <v>43675</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" ht="40" customHeight="1" spans="1:1">
+    <row r="41" ht="40" customHeight="1" spans="1:4">
       <c r="A41" s="6"/>
-    </row>
-    <row r="42" ht="40" customHeight="1" spans="1:1">
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" ht="40" customHeight="1" spans="1:4">
       <c r="A42" s="5"/>
-    </row>
-    <row r="43" ht="40" customHeight="1" spans="1:1">
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" ht="40" customHeight="1" spans="1:4">
       <c r="A43" s="3">
         <v>43676</v>
       </c>
-    </row>
-    <row r="44" ht="40" customHeight="1" spans="1:1">
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" ht="40" customHeight="1" spans="1:4">
       <c r="A44" s="6"/>
-    </row>
-    <row r="45" ht="40" customHeight="1" spans="1:1">
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" ht="40" customHeight="1" spans="1:4">
       <c r="A45" s="5"/>
-    </row>
-    <row r="46" ht="40" customHeight="1" spans="1:1">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" ht="40" customHeight="1" spans="1:4">
       <c r="A46" s="3">
         <v>43677</v>
       </c>
-    </row>
-    <row r="47" ht="40" customHeight="1" spans="1:1">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" ht="40" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
-    </row>
-    <row r="48" ht="40" customHeight="1" spans="1:1">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" ht="40" customHeight="1" spans="1:4">
       <c r="A48" s="5"/>
-    </row>
-    <row r="49" ht="40" customHeight="1" spans="1:1">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" ht="40" customHeight="1" spans="1:4">
       <c r="A49" s="3">
         <v>43678</v>
       </c>
-    </row>
-    <row r="50" ht="40" customHeight="1" spans="1:1">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" ht="40" customHeight="1" spans="1:4">
       <c r="A50" s="6"/>
-    </row>
-    <row r="51" ht="40" customHeight="1" spans="1:1">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" ht="40" customHeight="1" spans="1:4">
       <c r="A51" s="5"/>
-    </row>
-    <row r="52" ht="40" customHeight="1" spans="1:1">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" ht="40" customHeight="1" spans="1:4">
       <c r="A52" s="3">
         <v>43679</v>
       </c>
-    </row>
-    <row r="53" ht="40" customHeight="1" spans="1:1">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" ht="40" customHeight="1" spans="1:4">
       <c r="A53" s="6"/>
-    </row>
-    <row r="54" ht="40" customHeight="1" spans="1:1">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" ht="40" customHeight="1" spans="1:4">
       <c r="A54" s="5"/>
-    </row>
-    <row r="55" ht="40" customHeight="1" spans="1:1">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" ht="40" customHeight="1" spans="1:4">
       <c r="A55" s="3">
         <v>43680</v>
       </c>
-    </row>
-    <row r="56" ht="40" customHeight="1" spans="1:1">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" ht="40" customHeight="1" spans="1:4">
       <c r="A56" s="6"/>
-    </row>
-    <row r="57" ht="40" customHeight="1" spans="1:1">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" ht="40" customHeight="1" spans="1:4">
       <c r="A57" s="5"/>
-    </row>
-    <row r="58" ht="40" customHeight="1" spans="1:1">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" ht="40" customHeight="1" spans="1:4">
       <c r="A58" s="3">
         <v>43681</v>
       </c>
-    </row>
-    <row r="59" ht="40" customHeight="1" spans="1:1">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" ht="40" customHeight="1" spans="1:4">
       <c r="A59" s="6"/>
-    </row>
-    <row r="60" ht="40" customHeight="1" spans="1:1">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" ht="40" customHeight="1" spans="1:4">
       <c r="A60" s="5"/>
-    </row>
-    <row r="61" ht="40" customHeight="1" spans="1:1">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" ht="40" customHeight="1" spans="1:4">
       <c r="A61" s="3">
         <v>43682</v>
       </c>
-    </row>
-    <row r="62" ht="40" customHeight="1" spans="1:1">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" ht="40" customHeight="1" spans="1:4">
       <c r="A62" s="6"/>
-    </row>
-    <row r="63" ht="40" customHeight="1" spans="1:1">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" ht="40" customHeight="1" spans="1:4">
       <c r="A63" s="5"/>
-    </row>
-    <row r="64" ht="40" customHeight="1" spans="1:1">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" ht="40" customHeight="1" spans="1:4">
       <c r="A64" s="3">
         <v>43683</v>
       </c>
-    </row>
-    <row r="65" ht="40" customHeight="1" spans="1:1">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" ht="40" customHeight="1" spans="1:4">
       <c r="A65" s="6"/>
-    </row>
-    <row r="66" ht="40" customHeight="1" spans="1:1">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" ht="40" customHeight="1" spans="1:4">
       <c r="A66" s="5"/>
-    </row>
-    <row r="67" ht="40" customHeight="1" spans="1:1">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" ht="40" customHeight="1" spans="1:4">
       <c r="A67" s="3">
         <v>43684</v>
       </c>
-    </row>
-    <row r="68" ht="40" customHeight="1" spans="1:1">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" ht="40" customHeight="1" spans="1:4">
       <c r="A68" s="6"/>
-    </row>
-    <row r="69" ht="40" customHeight="1" spans="1:1">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" ht="40" customHeight="1" spans="1:4">
       <c r="A69" s="5"/>
-    </row>
-    <row r="70" ht="40" customHeight="1" spans="1:1">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" ht="40" customHeight="1" spans="1:4">
       <c r="A70" s="3">
         <v>43685</v>
       </c>
-    </row>
-    <row r="71" ht="40" customHeight="1" spans="1:1">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" ht="40" customHeight="1" spans="1:4">
       <c r="A71" s="6"/>
-    </row>
-    <row r="72" ht="40" customHeight="1" spans="1:1">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" ht="40" customHeight="1" spans="1:4">
       <c r="A72" s="5"/>
-    </row>
-    <row r="73" ht="40" customHeight="1" spans="1:1">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" ht="40" customHeight="1" spans="1:4">
       <c r="A73" s="3">
         <v>43686</v>
       </c>
-    </row>
-    <row r="74" ht="40" customHeight="1" spans="1:1">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" ht="40" customHeight="1" spans="1:4">
       <c r="A74" s="6"/>
-    </row>
-    <row r="75" ht="40" customHeight="1" spans="1:1">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" ht="40" customHeight="1" spans="1:4">
       <c r="A75" s="5"/>
-    </row>
-    <row r="76" ht="40" customHeight="1" spans="1:1">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" ht="40" customHeight="1" spans="1:4">
       <c r="A76" s="3">
         <v>43687</v>
       </c>
-    </row>
-    <row r="77" ht="40" customHeight="1" spans="1:1">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" ht="40" customHeight="1" spans="1:4">
       <c r="A77" s="6"/>
-    </row>
-    <row r="78" ht="40" customHeight="1" spans="1:1">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" ht="40" customHeight="1" spans="1:4">
       <c r="A78" s="5"/>
-    </row>
-    <row r="79" ht="40" customHeight="1" spans="1:1">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" ht="40" customHeight="1" spans="1:4">
       <c r="A79" s="3">
         <v>43688</v>
       </c>
-    </row>
-    <row r="80" ht="40" customHeight="1" spans="1:1">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" ht="40" customHeight="1" spans="1:4">
       <c r="A80" s="6"/>
-    </row>
-    <row r="81" ht="40" customHeight="1" spans="1:1">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" ht="40" customHeight="1" spans="1:4">
       <c r="A81" s="5"/>
-    </row>
-    <row r="82" ht="40" customHeight="1" spans="1:1">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" ht="40" customHeight="1" spans="1:4">
       <c r="A82" s="3">
         <v>43689</v>
       </c>
-    </row>
-    <row r="83" ht="40" customHeight="1" spans="1:1">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" ht="40" customHeight="1" spans="1:4">
       <c r="A83" s="6"/>
-    </row>
-    <row r="84" ht="40" customHeight="1" spans="1:1">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" ht="40" customHeight="1" spans="1:4">
       <c r="A84" s="5"/>
-    </row>
-    <row r="85" ht="40" customHeight="1" spans="1:1">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" ht="40" customHeight="1" spans="1:4">
       <c r="A85" s="3">
         <v>43690</v>
       </c>
-    </row>
-    <row r="86" ht="40" customHeight="1" spans="1:1">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" ht="40" customHeight="1" spans="1:4">
       <c r="A86" s="6"/>
-    </row>
-    <row r="87" ht="40" customHeight="1" spans="1:1">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" ht="40" customHeight="1" spans="1:4">
       <c r="A87" s="5"/>
-    </row>
-    <row r="88" ht="40" customHeight="1" spans="1:1">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" ht="40" customHeight="1" spans="1:4">
       <c r="A88" s="3">
         <v>43691</v>
       </c>
-    </row>
-    <row r="89" ht="40" customHeight="1" spans="1:1">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" ht="40" customHeight="1" spans="1:4">
       <c r="A89" s="6"/>
-    </row>
-    <row r="90" ht="40" customHeight="1" spans="1:1">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" ht="40" customHeight="1" spans="1:4">
       <c r="A90" s="5"/>
-    </row>
-    <row r="91" ht="40" customHeight="1" spans="1:1">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" ht="40" customHeight="1" spans="1:4">
       <c r="A91" s="3">
         <v>43692</v>
       </c>
-    </row>
-    <row r="92" ht="40" customHeight="1" spans="1:1">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" ht="40" customHeight="1" spans="1:4">
       <c r="A92" s="6"/>
-    </row>
-    <row r="93" ht="40" customHeight="1" spans="1:1">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" ht="40" customHeight="1" spans="1:4">
       <c r="A93" s="5"/>
-    </row>
-    <row r="94" ht="40" customHeight="1" spans="1:1">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" ht="40" customHeight="1" spans="1:4">
       <c r="A94" s="3">
         <v>43693</v>
       </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" ht="40" customHeight="1" spans="1:1">
       <c r="A95" s="6"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="8327"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>日期</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>安装pytorch，解决命令行conda一直报错</t>
+  </si>
+  <si>
+    <t>查看去年学长代码</t>
+  </si>
+  <si>
+    <t>查看《基于最大熵原则的汉语语义角色分类》_丁伟伟</t>
+  </si>
+  <si>
+    <t>感觉有点复杂</t>
+  </si>
+  <si>
+    <t>开始修改别人代码</t>
   </si>
 </sst>
 </file>
@@ -236,15 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +270,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -288,7 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,8 +299,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +338,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -340,9 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,14 +383,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,19 +399,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,79 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,73 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,8 +674,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,30 +691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +712,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -731,13 +739,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,133 +788,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1300,7 +1312,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1854,39 +1866,63 @@
       <c r="A46" s="3">
         <v>43677</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" ht="40" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" ht="40" customHeight="1" spans="1:4">
       <c r="A48" s="5"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" ht="40" customHeight="1" spans="1:4">
       <c r="A49" s="3">
         <v>43678</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" ht="40" customHeight="1" spans="1:4">
       <c r="A50" s="6"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" ht="40" customHeight="1" spans="1:4">
       <c r="A51" s="5"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
   <si>
     <t>日期</t>
   </si>
@@ -203,6 +203,27 @@
   </si>
   <si>
     <t>开始修改别人代码</t>
+  </si>
+  <si>
+    <t>先用别人的模型尝试</t>
+  </si>
+  <si>
+    <t>先把数据写死，尝试语义角色标注</t>
+  </si>
+  <si>
+    <t>解决前端往后端返回有问题</t>
+  </si>
+  <si>
+    <t>完善整个服务</t>
+  </si>
+  <si>
+    <t>最终能粗略实现语义角色标注</t>
+  </si>
+  <si>
+    <t>开始学习pytorch</t>
+  </si>
+  <si>
+    <t>发现这个特别难</t>
   </si>
 </sst>
 </file>
@@ -210,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -240,10 +261,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,16 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,8 +313,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +346,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -314,75 +398,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -399,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,11 +692,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +731,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -706,6 +751,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,45 +789,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -776,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,8 +1332,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1907,44 +1928,74 @@
       <c r="B49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="50" ht="40" customHeight="1" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" ht="40" customHeight="1" spans="1:4">
       <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" ht="40" customHeight="1" spans="1:4">
       <c r="A52" s="3">
         <v>43679</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="53" ht="40" customHeight="1" spans="1:4">
       <c r="A53" s="6"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="54" ht="40" customHeight="1" spans="1:4">
       <c r="A54" s="5"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="55" ht="40" customHeight="1" spans="1:4">
       <c r="A55" s="3">

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>日期</t>
   </si>
@@ -224,6 +224,54 @@
   </si>
   <si>
     <t>发现这个特别难</t>
+  </si>
+  <si>
+    <t>在网上查pytorch的相关资料</t>
+  </si>
+  <si>
+    <t>学习pytorch</t>
+  </si>
+  <si>
+    <t>。。。</t>
+  </si>
+  <si>
+    <t>觉得学习这个之前得先学习Numpy和pandaa</t>
+  </si>
+  <si>
+    <t>看Numpy的视频</t>
+  </si>
+  <si>
+    <t>未看完</t>
+  </si>
+  <si>
+    <t>看《数学之美》文档</t>
+  </si>
+  <si>
+    <t>看了两章</t>
+  </si>
+  <si>
+    <t>简单了解神经网络</t>
+  </si>
+  <si>
+    <t>有个概念</t>
+  </si>
+  <si>
+    <t>小组开会总结工作，并安排任务</t>
+  </si>
+  <si>
+    <t>开会，展示各小组完成的</t>
+  </si>
+  <si>
+    <t>学习Numpy</t>
+  </si>
+  <si>
+    <t>晚上看</t>
+  </si>
+  <si>
+    <t>学习pandas</t>
+  </si>
+  <si>
+    <t>下午继续</t>
   </si>
 </sst>
 </file>
@@ -231,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -269,14 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -284,8 +324,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -300,22 +355,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,30 +394,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,8 +425,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,27 +446,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,25 +474,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,145 +606,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,30 +759,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -751,6 +775,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,11 +822,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,10 +845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,137 +857,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +1029,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1332,8 +1386,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2001,26 +2055,38 @@
       <c r="A55" s="3">
         <v>43680</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" ht="40" customHeight="1" spans="1:4">
       <c r="A56" s="6"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="57" ht="40" customHeight="1" spans="1:4">
       <c r="A57" s="5"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" ht="40" customHeight="1" spans="1:4">
-      <c r="A58" s="3">
-        <v>43681</v>
-      </c>
+      <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2041,69 +2107,129 @@
       <c r="A61" s="3">
         <v>43682</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="62" ht="40" customHeight="1" spans="1:4">
       <c r="A62" s="6"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="63" ht="40" customHeight="1" spans="1:4">
       <c r="A63" s="5"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64" ht="40" customHeight="1" spans="1:4">
       <c r="A64" s="3">
         <v>43683</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="65" ht="40" customHeight="1" spans="1:4">
       <c r="A65" s="6"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="66" ht="40" customHeight="1" spans="1:4">
       <c r="A66" s="5"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" ht="40" customHeight="1" spans="1:4">
       <c r="A67" s="3">
         <v>43684</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" ht="40" customHeight="1" spans="1:4">
       <c r="A68" s="6"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="69" ht="40" customHeight="1" spans="1:4">
       <c r="A69" s="5"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="70" ht="40" customHeight="1" spans="1:4">
       <c r="A70" s="3">
         <v>43685</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="71" ht="40" customHeight="1" spans="1:4">
       <c r="A71" s="6"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>日期</t>
   </si>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>下午继续</t>
+  </si>
+  <si>
+    <t>学习神经网络入门中，多层向前神
+经网络和反向传播算法（Backpropagation）</t>
   </si>
 </sst>
 </file>
@@ -280,9 +284,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -309,16 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,24 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,7 +343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +357,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -384,17 +372,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +412,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -418,22 +428,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,13 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -468,13 +472,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,169 +574,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,11 +759,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,17 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,24 +841,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -845,10 +849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,137 +861,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,9 +1035,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1386,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2082,8 +2089,8 @@
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" ht="40" customHeight="1" spans="1:4">
       <c r="A58" s="3"/>
@@ -2113,7 +2120,7 @@
       <c r="C61" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2189,7 +2196,7 @@
       <c r="C67" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2227,19 +2234,25 @@
       <c r="C70" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="71" ht="40" customHeight="1" spans="1:4">
       <c r="A71" s="6"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="B71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" ht="40" customHeight="1" spans="1:4">
       <c r="A72" s="5"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
@@ -2391,27 +2404,45 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" ht="40" customHeight="1" spans="1:1">
+    <row r="95" ht="40" customHeight="1" spans="1:4">
       <c r="A95" s="6"/>
-    </row>
-    <row r="96" ht="40" customHeight="1" spans="1:1">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" ht="40" customHeight="1" spans="1:4">
       <c r="A96" s="5"/>
-    </row>
-    <row r="97" ht="40" customHeight="1" spans="1:1">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" ht="40" customHeight="1" spans="1:4">
       <c r="A97" s="3">
         <v>43694</v>
       </c>
-    </row>
-    <row r="98" ht="40" customHeight="1" spans="1:1">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" ht="40" customHeight="1" spans="1:4">
       <c r="A98" s="6"/>
-    </row>
-    <row r="99" ht="40" customHeight="1" spans="1:1">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" ht="40" customHeight="1" spans="1:4">
       <c r="A99" s="5"/>
-    </row>
-    <row r="100" ht="40" customHeight="1" spans="1:1">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" ht="40" customHeight="1" spans="1:4">
       <c r="A100" s="3">
         <v>43695</v>
       </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" ht="40" customHeight="1" spans="1:1">
       <c r="A101" s="6"/>
@@ -2543,10 +2574,11 @@
     <row r="136" ht="40" customHeight="1"/>
     <row r="137" ht="40" customHeight="1"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -276,6 +276,18 @@
   <si>
     <t>学习神经网络入门中，多层向前神
 经网络和反向传播算法（Backpropagation）</t>
+  </si>
+  <si>
+    <t>决策树算法的学习</t>
+  </si>
+  <si>
+    <t>决策树算法的应用</t>
+  </si>
+  <si>
+    <t>最邻近规则分类KNN算法</t>
+  </si>
+  <si>
+    <t>最邻近规则KNN分类应用</t>
   </si>
 </sst>
 </file>
@@ -283,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -327,36 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -372,14 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -388,17 +362,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,9 +400,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,23 +449,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,73 +484,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,109 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,6 +756,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -755,6 +776,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,67 +848,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,8 +1405,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2260,19 +2272,33 @@
       <c r="A73" s="3">
         <v>43686</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" ht="40" customHeight="1" spans="1:4">
       <c r="A74" s="6"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="B74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" ht="40" customHeight="1" spans="1:4">
       <c r="A75" s="5"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
@@ -2280,20 +2306,30 @@
       <c r="A76" s="3">
         <v>43687</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" ht="40" customHeight="1" spans="1:4">
       <c r="A77" s="6"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" ht="40" customHeight="1" spans="1:4">
       <c r="A78" s="5"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" ht="40" customHeight="1" spans="1:4">

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -332,6 +332,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -355,7 +356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,15 +371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +382,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,15 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -455,8 +447,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,6 +461,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -484,84 +484,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -569,102 +665,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +758,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -780,32 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -817,15 +802,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,8 +824,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,10 +873,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,115 +891,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,8 +1405,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2320,7 +2320,9 @@
       <c r="C77" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" ht="40" customHeight="1" spans="1:4">
       <c r="A78" s="5"/>
@@ -2330,12 +2332,12 @@
       <c r="C78" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" ht="40" customHeight="1" spans="1:4">
-      <c r="A79" s="3">
-        <v>43688</v>
-      </c>
+      <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -325,16 +325,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,45 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,23 +381,66 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,16 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,21 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,187 +484,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,52 +756,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +790,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -839,17 +843,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,19 +873,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,112 +894,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,8 +1405,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
   <si>
     <t>日期</t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>最邻近规则KNN分类应用</t>
+  </si>
+  <si>
+    <t>支持向量机SVM算法（上）</t>
+  </si>
+  <si>
+    <t>支持向量机SVM算法（上）应用</t>
+  </si>
+  <si>
+    <t>支持向量机SVM算法（下）</t>
+  </si>
+  <si>
+    <t>支持向量机SVM算法（下）应用</t>
   </si>
 </sst>
 </file>
@@ -295,10 +307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -325,66 +337,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,22 +365,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,22 +437,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +460,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,13 +496,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,169 +664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,6 +768,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,17 +807,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,45 +852,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +885,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,8 +1417,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:D72"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2358,41 +2370,77 @@
       <c r="A82" s="3">
         <v>43689</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="83" ht="40" customHeight="1" spans="1:4">
       <c r="A83" s="6"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="B83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="84" ht="40" customHeight="1" spans="1:4">
       <c r="A84" s="5"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="85" ht="40" customHeight="1" spans="1:4">
       <c r="A85" s="3">
         <v>43690</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="86" ht="40" customHeight="1" spans="1:4">
       <c r="A86" s="6"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="B86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" ht="40" customHeight="1" spans="1:4">
       <c r="A87" s="5"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" ht="40" customHeight="1" spans="1:4">
       <c r="A88" s="3">

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="93">
   <si>
     <t>日期</t>
   </si>
@@ -290,16 +290,13 @@
     <t>最邻近规则KNN分类应用</t>
   </si>
   <si>
-    <t>支持向量机SVM算法（上）</t>
-  </si>
-  <si>
-    <t>支持向量机SVM算法（上）应用</t>
-  </si>
-  <si>
-    <t>支持向量机SVM算法（下）</t>
-  </si>
-  <si>
-    <t>支持向量机SVM算法（下）应用</t>
+    <t>支持向量机SVM算法（线性可分）</t>
+  </si>
+  <si>
+    <t>支持向量机SVM算法应用</t>
+  </si>
+  <si>
+    <t>支持向量机SVM算法（线性不可分）</t>
   </si>
 </sst>
 </file>
@@ -307,10 +304,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -345,14 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,21 +357,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,17 +372,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,6 +389,51 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,24 +455,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,21 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -502,13 +499,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,157 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +767,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -788,41 +796,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,6 +824,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -873,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,133 +882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1417,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2436,7 +2433,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -304,10 +304,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -335,13 +335,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -349,7 +342,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,18 +385,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,7 +410,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,36 +437,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,6 +463,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -469,14 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -493,31 +493,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +637,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,139 +667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,20 +767,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,9 +791,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,8 +842,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,21 +862,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,133 +882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/doc/log/201716064124张有胜.xlsx
+++ b/doc/log/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="17424" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
   <si>
     <t>日期</t>
   </si>
@@ -297,6 +297,13 @@
   </si>
   <si>
     <t>支持向量机SVM算法（线性不可分）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分词工具有5中。其一jieba,三种形式，自带词典，
+import jieba
+s=jieba.cut("大家好",cut_all=False)
+print("/".join(s))
+</t>
   </si>
 </sst>
 </file>
@@ -304,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -335,7 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +350,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,13 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +394,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -409,13 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -431,52 +484,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -493,37 +500,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,138 +680,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -765,6 +772,68 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -800,6 +869,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -823,45 +931,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,137 +951,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1132,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1414,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2461,27 +2548,29 @@
     </row>
     <row r="91" ht="40" customHeight="1" spans="1:4">
       <c r="A91" s="3">
-        <v>43692</v>
+        <v>43781</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="C91" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" ht="40" customHeight="1" spans="1:4">
       <c r="A92" s="6"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
     </row>
     <row r="93" ht="40" customHeight="1" spans="1:4">
       <c r="A93" s="5"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" ht="40" customHeight="1" spans="1:4">
       <c r="A94" s="3">
-        <v>43693</v>
+        <v>43782</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2501,7 +2590,7 @@
     </row>
     <row r="97" ht="40" customHeight="1" spans="1:4">
       <c r="A97" s="3">
-        <v>43694</v>
+        <v>43783</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2521,7 +2610,7 @@
     </row>
     <row r="100" ht="40" customHeight="1" spans="1:4">
       <c r="A100" s="3">
-        <v>43695</v>
+        <v>43784</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2657,7 +2746,7 @@
     <row r="136" ht="40" customHeight="1"/>
     <row r="137" ht="40" customHeight="1"/>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -2707,6 +2796,7 @@
     <mergeCell ref="A127:A129"/>
     <mergeCell ref="A130:A132"/>
     <mergeCell ref="A133:A135"/>
+    <mergeCell ref="C91:D93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
